--- a/data/case1/14/Qlm2_6.xlsx
+++ b/data/case1/14/Qlm2_6.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.092247458539716831</v>
+        <v>-0.098162608357640124</v>
       </c>
       <c r="B1" s="0">
-        <v>0.092047318947884094</v>
+        <v>0.097958897956829105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.06994616199537429</v>
+        <v>-0.075854384001919684</v>
       </c>
       <c r="B2" s="0">
-        <v>0.069224153304134894</v>
+        <v>0.075128502934767027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.019514209342569089</v>
+        <v>-0.025417387845127593</v>
       </c>
       <c r="B3" s="0">
-        <v>0.019396786908705721</v>
+        <v>0.025299765315587308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.01139678699275315</v>
+        <v>-0.017299765362992048</v>
       </c>
       <c r="B4" s="0">
-        <v>0.011078883698974806</v>
+        <v>0.016985361334297622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0080788837365615151</v>
+        <v>-0.013985361355779879</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0070034725432526201</v>
+        <v>0.012925872654579784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.00056422771180031361</v>
+        <v>0.0050662406835115803</v>
       </c>
       <c r="B6" s="0">
-        <v>0.00030718380456740135</v>
+        <v>-0.0053209592618550516</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0096928160894331761</v>
+        <v>0.015320959201875706</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0097485522887965637</v>
+        <v>-0.015378072985277935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.01974855218403615</v>
+        <v>0.025378072926321771</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.019843279132500946</v>
+        <v>-0.025483104696735204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.021843279107190305</v>
+        <v>0.02748310468277948</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.021920738627676073</v>
+        <v>-0.027572336751759519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.023920738606419079</v>
+        <v>0.029572336740553595</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.023923986670641995</v>
+        <v>-0.029577846551406495</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0089611763272952061</v>
+        <v>-0.010548763135106221</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0089520377319427524</v>
+        <v>0.010537250822598487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0054520377677906851</v>
+        <v>-0.0070372508417109181</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0053884127884531452</v>
+        <v>0.0069598079325619011</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.001888412825247876</v>
+        <v>-0.0034598079525496317</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0018654487599611969</v>
+        <v>0.0034300914012472816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0061345511606019087</v>
+        <v>0.0045699085547106222</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0061386658437019292</v>
+        <v>-0.0045759822632538416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.00713866583122158</v>
+        <v>0.0055759822566425754</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0071405493071630133</v>
+        <v>-0.0055785067032063651</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0091405492860774373</v>
+        <v>0.0075785066916358446</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0091508578961927434</v>
+        <v>-0.0075854154381476135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040031121094052935</v>
+        <v>-0.0040034047542656381</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999623914206</v>
+        <v>0.003999999978631763</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016101157009959621</v>
+        <v>-0.016104513987329483</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016090891118157202</v>
+        <v>0.016091498877127464</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012090891157037653</v>
+        <v>-0.012091498899027719</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016064828928918</v>
+        <v>0.012016661288238417</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080160648715423832</v>
+        <v>-0.00801666131187595</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055829265663903</v>
+        <v>0.0080056720098511391</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040055829697021039</v>
+        <v>-0.0040056720337569018</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999567452704</v>
+        <v>0.003999999975943247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045709944006386394</v>
+        <v>-0.045711115114920986</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045497598936588446</v>
+        <v>0.045498099295050665</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040497598993960437</v>
+        <v>-0.040498099327407999</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040098605214202721</v>
+        <v>0.040098833187395932</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020098605420685978</v>
+        <v>-0.020098833302816921</v>
       </c>
       <c r="B24" s="0">
-        <v>0.01999999979063638</v>
+        <v>0.019999999882991837</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0044392448616434876</v>
+        <v>-0.015992113355645543</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0044122610428178888</v>
+        <v>0.015963018488754699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.050190296961302394</v>
+        <v>-0.049197004523461985</v>
       </c>
       <c r="B26" s="0">
-        <v>0.050167931411767341</v>
+        <v>0.049173917465660466</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.047667931448650336</v>
+        <v>-0.046673917486867555</v>
       </c>
       <c r="B27" s="0">
-        <v>0.047528491974573317</v>
+        <v>0.046538627414024258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.045528492016703836</v>
+        <v>-0.0445386274374302</v>
       </c>
       <c r="B28" s="0">
-        <v>0.045432446018019768</v>
+        <v>0.044446939443719913</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.038432446114248009</v>
+        <v>-0.037446939497132625</v>
       </c>
       <c r="B29" s="0">
-        <v>0.03840400308804881</v>
+        <v>0.037420617694547076</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021163157755935913</v>
+        <v>-0.021164843965342683</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021021238397375352</v>
+        <v>0.021022545110775059</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.01402123850042436</v>
+        <v>-0.014022545167831524</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000899047974968</v>
+        <v>0.01400123360150296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.004000899180073958</v>
+        <v>-0.0040012336748578292</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999248525597</v>
+        <v>0.0039999999584807711</v>
       </c>
     </row>
   </sheetData>
